--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1957730.402721005</v>
+        <v>1903703.715001054</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4356860.590084111</v>
+        <v>4356860.590084112</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11460762.92314624</v>
+        <v>11460762.92314623</v>
       </c>
     </row>
     <row r="9">
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>31.83779371908472</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.56532364898706</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>102.6375083652041</v>
+        <v>90.40311736807178</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.169700695916053</v>
+        <v>56.14127127247613</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>34.26184609559561</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.854039860480512</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.3793768116752</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.413520283064928</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.055385824510154</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>85.98959708500686</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.6375083652041</v>
+        <v>2.358134458554746</v>
       </c>
     </row>
     <row r="26">
@@ -2572,52 +2572,52 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>100.6186523625792</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>92.42197337069669</v>
+      </c>
+      <c r="V26" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="I26" t="n">
+      <c r="W26" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>90.40311736807178</v>
-      </c>
-      <c r="S26" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>50.90736857407263</v>
       </c>
       <c r="S27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>39.49574879399915</v>
       </c>
       <c r="V27" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="W27" t="n">
-        <v>39.49574879399915</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="28">
@@ -2712,76 +2712,76 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>90.40311736807173</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C28" t="n">
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>36.91157767312388</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
+      <c r="Y28" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="T28" t="n">
-        <v>53.49153969494787</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>90.40311736807173</v>
       </c>
-      <c r="C29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>89.9094798025053</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>90.40311736807178</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>36.91157767312388</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>58.94555099215325</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>33.8931795435948</v>
       </c>
       <c r="U32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>4.255144460458417</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>102.6375083652041</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>90.40311736807173</v>
       </c>
       <c r="W33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>37.69983327724451</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T34" t="n">
-        <v>90.40311736807175</v>
-      </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="V34" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>90.40311736807175</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.28590033872817</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>51.7100322767111</v>
+        <v>11.05379849642876</v>
       </c>
       <c r="G36" t="n">
-        <v>3.870689584641969</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
       <c r="Y36" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.08133853192354</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
-        <v>68.8679923907668</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U37" t="n">
-        <v>102.6375083652041</v>
+        <v>34.47461523099312</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="U38" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="H38" t="n">
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>90.40311736807173</v>
-      </c>
-      <c r="I38" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,16 +3590,16 @@
         <v>54.08588544796598</v>
       </c>
       <c r="E39" t="n">
-        <v>41.89897018430592</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F39" t="n">
-        <v>51.7100322767111</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>43.98433704653786</v>
       </c>
       <c r="H39" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>78.32399098716505</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>48.19936624211253</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>73.88764098195506</v>
       </c>
       <c r="D40" t="n">
-        <v>55.25629290153958</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.21877349082405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>83.93421126049671</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U40" t="n">
-        <v>82.59998895448859</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,64 +3739,64 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>90.40311736807178</v>
+      </c>
+      <c r="S41" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C41" t="n">
-        <v>90.40311736807173</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="T41" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,67 +3824,67 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>9.128827333822308</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>39.49574879399911</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>50.90736857407263</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="F42" t="n">
-        <v>95.81874681481338</v>
-      </c>
-      <c r="G42" t="n">
-        <v>88.09305158464014</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,61 +3897,61 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>97.18349706799867</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>36.91157767312389</v>
+      </c>
+      <c r="R43" t="n">
+        <v>58.94555099215328</v>
+      </c>
+      <c r="S43" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>90.40311736807175</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>90.40311736807175</v>
       </c>
       <c r="G44" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4064,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>41.96259549070973</v>
+        <v>1.81642821786514</v>
       </c>
       <c r="G45" t="n">
         <v>88.09305158464014</v>
@@ -4076,7 +4076,7 @@
         <v>62.98497865792596</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="46">
@@ -4140,50 +4140,50 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>99.36500743964186</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.18349706799867</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>96.17058244436075</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>44.10871453810227</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>36.91157767312388</v>
+      </c>
+      <c r="R46" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.959047146478656</v>
-      </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>15.84975107768894</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.3703882642514</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="C23" t="n">
-        <v>8.211000669216329</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="D23" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="E23" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F23" t="n">
         <v>8.211000669216329</v>
@@ -5992,49 +5992,49 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K23" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="L23" t="n">
-        <v>211.4332672323205</v>
+        <v>105.7166336161603</v>
       </c>
       <c r="M23" t="n">
-        <v>308.9389001792644</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="N23" t="n">
         <v>308.9389001792644</v>
       </c>
       <c r="O23" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P23" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q23" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R23" t="n">
-        <v>351.3931408860821</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S23" t="n">
-        <v>247.7188900121385</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T23" t="n">
-        <v>144.044639138195</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="U23" t="n">
-        <v>144.044639138195</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="V23" t="n">
-        <v>144.044639138195</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="W23" t="n">
-        <v>144.044639138195</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="X23" t="n">
-        <v>144.044639138195</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.3703882642514</v>
+        <v>319.2337532910469</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.392516523676989</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="C24" t="n">
-        <v>9.392516523676989</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="D24" t="n">
-        <v>8.211000669216329</v>
+        <v>42.8189260183028</v>
       </c>
       <c r="E24" t="n">
-        <v>8.211000669216329</v>
+        <v>42.8189260183028</v>
       </c>
       <c r="F24" t="n">
         <v>8.211000669216329</v>
@@ -6074,46 +6074,46 @@
         <v>8.211000669216329</v>
       </c>
       <c r="L24" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M24" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="N24" t="n">
-        <v>211.4332672323205</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="O24" t="n">
-        <v>313.0444005138726</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="P24" t="n">
-        <v>341.1554749474872</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R24" t="n">
-        <v>401.6065588542705</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S24" t="n">
-        <v>320.4152691455076</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T24" t="n">
-        <v>320.4152691455076</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U24" t="n">
-        <v>216.7410182715641</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V24" t="n">
-        <v>113.0667673976205</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W24" t="n">
-        <v>113.0667673976205</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="X24" t="n">
-        <v>9.392516523676989</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.392516523676989</v>
+        <v>99.52728083898576</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.66910196524151</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="C25" t="n">
-        <v>12.66910196524151</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="D25" t="n">
-        <v>12.66910196524151</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="E25" t="n">
-        <v>12.66910196524151</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="F25" t="n">
-        <v>12.66910196524151</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="G25" t="n">
-        <v>12.66910196524151</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="H25" t="n">
-        <v>8.211000669216329</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="I25" t="n">
-        <v>8.211000669216329</v>
+        <v>10.28714796670133</v>
       </c>
       <c r="J25" t="n">
         <v>8.211000669216329</v>
@@ -6153,46 +6153,46 @@
         <v>76.55496011083331</v>
       </c>
       <c r="L25" t="n">
-        <v>103.8690851185463</v>
+        <v>133.2731477800568</v>
       </c>
       <c r="M25" t="n">
-        <v>191.812759992816</v>
+        <v>172.4611859722789</v>
       </c>
       <c r="N25" t="n">
-        <v>293.4238932743681</v>
+        <v>216.1520366277152</v>
       </c>
       <c r="O25" t="n">
         <v>317.7631699092673</v>
       </c>
       <c r="P25" t="n">
-        <v>405.4596999307529</v>
+        <v>405.4596999307528</v>
       </c>
       <c r="Q25" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R25" t="n">
-        <v>323.6918545870722</v>
+        <v>323.6918545870721</v>
       </c>
       <c r="S25" t="n">
+        <v>323.6918545870721</v>
+      </c>
+      <c r="T25" t="n">
+        <v>323.6918545870721</v>
+      </c>
+      <c r="U25" t="n">
         <v>220.0176037131286</v>
       </c>
-      <c r="T25" t="n">
-        <v>116.3433528391851</v>
-      </c>
-      <c r="U25" t="n">
-        <v>116.3433528391851</v>
-      </c>
       <c r="V25" t="n">
-        <v>116.3433528391851</v>
+        <v>116.343352839185</v>
       </c>
       <c r="W25" t="n">
-        <v>116.3433528391851</v>
+        <v>12.66910196524148</v>
       </c>
       <c r="X25" t="n">
-        <v>116.3433528391851</v>
+        <v>12.66910196524148</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.66910196524151</v>
+        <v>10.28714796670133</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="C26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H26" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I26" t="n">
         <v>8.211000669216329</v>
@@ -6229,49 +6229,49 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K26" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L26" t="n">
-        <v>16.05657832410927</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M26" t="n">
-        <v>117.6677116056613</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N26" t="n">
-        <v>219.2788448872134</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="O26" t="n">
-        <v>320.8899781687655</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P26" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q26" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R26" t="n">
-        <v>319.233753291047</v>
+        <v>308.9150310743728</v>
       </c>
       <c r="S26" t="n">
-        <v>215.5595024171034</v>
+        <v>308.9150310743728</v>
       </c>
       <c r="T26" t="n">
-        <v>215.5595024171034</v>
+        <v>308.9150310743728</v>
       </c>
       <c r="U26" t="n">
         <v>215.5595024171034</v>
       </c>
       <c r="V26" t="n">
-        <v>215.5595024171034</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="W26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="X26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="Y26" t="n">
-        <v>215.5595024171034</v>
+        <v>8.211000669216329</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C27" t="n">
         <v>8.211000669216329</v>
@@ -6308,49 +6308,49 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K27" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L27" t="n">
-        <v>8.211000669216329</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M27" t="n">
-        <v>36.32207510283095</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N27" t="n">
-        <v>137.933208384383</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="O27" t="n">
-        <v>239.5443416659351</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="P27" t="n">
-        <v>341.1554749474872</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R27" t="n">
-        <v>359.1284490425613</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="S27" t="n">
-        <v>255.4541981686177</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="T27" t="n">
-        <v>151.7799472946742</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="U27" t="n">
-        <v>151.7799472946742</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="V27" t="n">
-        <v>48.10569642073062</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="W27" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="X27" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.8852515431599</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="C28" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="D28" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="E28" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="F28" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="G28" t="n">
         <v>8.211000669216329</v>
@@ -6387,7 +6387,7 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K28" t="n">
-        <v>34.92216468437715</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L28" t="n">
         <v>110.9942506148749</v>
@@ -6399,37 +6399,37 @@
         <v>291.389061308103</v>
       </c>
       <c r="O28" t="n">
-        <v>364.4862988657871</v>
+        <v>364.486298865787</v>
       </c>
       <c r="P28" t="n">
-        <v>410.5500334608165</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="Q28" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="R28" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S28" t="n">
-        <v>269.5913606948286</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T28" t="n">
-        <v>215.5595024171034</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U28" t="n">
-        <v>215.5595024171034</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="V28" t="n">
-        <v>215.5595024171034</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W28" t="n">
-        <v>215.5595024171034</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X28" t="n">
-        <v>215.5595024171034</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y28" t="n">
-        <v>215.5595024171034</v>
+        <v>99.52728083898576</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>111.8852515431599</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="C29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="D29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="E29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="F29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="G29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="H29" t="n">
         <v>8.211000669216329</v>
@@ -6466,19 +6466,19 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K29" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L29" t="n">
-        <v>16.05657832410927</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="M29" t="n">
-        <v>117.6677116056613</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="N29" t="n">
-        <v>219.2788448872134</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="O29" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P29" t="n">
         <v>410.5500334608164</v>
@@ -6496,19 +6496,19 @@
         <v>410.5500334608164</v>
       </c>
       <c r="U29" t="n">
+        <v>410.5500334608164</v>
+      </c>
+      <c r="V29" t="n">
+        <v>410.5500334608164</v>
+      </c>
+      <c r="W29" t="n">
         <v>306.8757825868728</v>
-      </c>
-      <c r="V29" t="n">
-        <v>203.2015317129293</v>
-      </c>
-      <c r="W29" t="n">
-        <v>203.2015317129293</v>
       </c>
       <c r="X29" t="n">
         <v>203.2015317129293</v>
       </c>
       <c r="Y29" t="n">
-        <v>203.2015317129293</v>
+        <v>99.52728083898576</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.211000669216329</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C30" t="n">
-        <v>8.211000669216329</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="D30" t="n">
-        <v>8.211000669216329</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="E30" t="n">
-        <v>8.211000669216329</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="F30" t="n">
-        <v>8.211000669216329</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="G30" t="n">
-        <v>8.211000669216329</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="H30" t="n">
-        <v>8.211000669216329</v>
+        <v>48.76268478320075</v>
       </c>
       <c r="I30" t="n">
         <v>8.211000669216329</v>
@@ -6545,19 +6545,19 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K30" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4332672323204</v>
+        <v>105.7166336161603</v>
       </c>
       <c r="M30" t="n">
+        <v>105.7166336161603</v>
+      </c>
+      <c r="N30" t="n">
+        <v>207.3277668977123</v>
+      </c>
+      <c r="O30" t="n">
         <v>308.9389001792644</v>
-      </c>
-      <c r="N30" t="n">
-        <v>308.9389001792644</v>
-      </c>
-      <c r="O30" t="n">
-        <v>410.5500334608164</v>
       </c>
       <c r="P30" t="n">
         <v>410.5500334608164</v>
@@ -6569,25 +6569,25 @@
         <v>410.5500334608164</v>
       </c>
       <c r="S30" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T30" t="n">
-        <v>319.2337532910469</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="U30" t="n">
-        <v>319.2337532910469</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V30" t="n">
-        <v>215.5595024171034</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W30" t="n">
-        <v>111.8852515431599</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X30" t="n">
-        <v>8.211000669216329</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.211000669216329</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.211000669216329</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="C31" t="n">
-        <v>8.211000669216329</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="D31" t="n">
-        <v>8.211000669216329</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="E31" t="n">
         <v>8.211000669216329</v>
@@ -6630,7 +6630,7 @@
         <v>110.9942506148749</v>
       </c>
       <c r="M31" t="n">
-        <v>198.9402497298818</v>
+        <v>198.9402497298819</v>
       </c>
       <c r="N31" t="n">
         <v>291.389061308103</v>
@@ -6642,31 +6642,31 @@
         <v>410.5500334608164</v>
       </c>
       <c r="Q31" t="n">
-        <v>410.5500334608164</v>
+        <v>373.265611568772</v>
       </c>
       <c r="R31" t="n">
-        <v>410.5500334608164</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="S31" t="n">
-        <v>410.5500334608164</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="T31" t="n">
-        <v>410.5500334608164</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="U31" t="n">
-        <v>410.5500334608164</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="V31" t="n">
-        <v>306.8757825868728</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="W31" t="n">
-        <v>203.2015317129293</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="X31" t="n">
-        <v>111.8852515431599</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.211000669216329</v>
+        <v>210.0504000966939</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="C32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="D32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="E32" t="n">
-        <v>8.211000669216329</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="F32" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G32" t="n">
         <v>8.211000669216329</v>
@@ -6706,13 +6706,13 @@
         <v>109.8221339507684</v>
       </c>
       <c r="L32" t="n">
-        <v>117.6677116056613</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M32" t="n">
         <v>219.2788448872134</v>
       </c>
       <c r="N32" t="n">
-        <v>320.8899781687654</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O32" t="n">
         <v>320.8899781687654</v>
@@ -6724,28 +6724,28 @@
         <v>410.5500334608164</v>
       </c>
       <c r="R32" t="n">
-        <v>410.5500334608164</v>
+        <v>353.469288183567</v>
       </c>
       <c r="S32" t="n">
-        <v>410.5500334608164</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="T32" t="n">
-        <v>410.5500334608164</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="U32" t="n">
-        <v>306.8757825868728</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="V32" t="n">
-        <v>203.2015317129293</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="W32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="X32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="Y32" t="n">
-        <v>99.52728083898576</v>
+        <v>215.5595024171034</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>92.65995352992481</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="C33" t="n">
-        <v>12.50912638685109</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D33" t="n">
-        <v>12.50912638685109</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E33" t="n">
-        <v>12.50912638685109</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F33" t="n">
-        <v>12.50912638685109</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G33" t="n">
-        <v>12.50912638685109</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H33" t="n">
         <v>8.211000669216329</v>
@@ -6782,49 +6782,49 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K33" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L33" t="n">
-        <v>109.8221339507684</v>
+        <v>137.933208384383</v>
       </c>
       <c r="M33" t="n">
-        <v>207.3277668977123</v>
+        <v>239.5443416659351</v>
       </c>
       <c r="N33" t="n">
-        <v>207.3277668977123</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="O33" t="n">
-        <v>308.9389001792644</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="P33" t="n">
-        <v>410.5500334608164</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="Q33" t="n">
         <v>410.5500334608164</v>
       </c>
       <c r="R33" t="n">
-        <v>403.6827061517554</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="S33" t="n">
-        <v>403.6827061517554</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T33" t="n">
-        <v>300.0084552778119</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U33" t="n">
-        <v>300.0084552778119</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="V33" t="n">
-        <v>300.0084552778119</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="W33" t="n">
-        <v>196.3342044038683</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X33" t="n">
-        <v>196.3342044038683</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y33" t="n">
-        <v>92.65995352992481</v>
+        <v>8.211000669216329</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.211000669216329</v>
+        <v>115.8552690207429</v>
       </c>
       <c r="C34" t="n">
-        <v>8.211000669216329</v>
+        <v>115.8552690207429</v>
       </c>
       <c r="D34" t="n">
-        <v>8.211000669216329</v>
+        <v>115.8552690207429</v>
       </c>
       <c r="E34" t="n">
-        <v>8.211000669216329</v>
+        <v>115.8552690207429</v>
       </c>
       <c r="F34" t="n">
-        <v>8.211000669216329</v>
+        <v>115.8552690207429</v>
       </c>
       <c r="G34" t="n">
-        <v>8.211000669216329</v>
+        <v>115.8552690207429</v>
       </c>
       <c r="H34" t="n">
-        <v>8.211000669216329</v>
+        <v>46.29164034320068</v>
       </c>
       <c r="I34" t="n">
         <v>8.211000669216329</v>
@@ -6861,16 +6861,16 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K34" t="n">
-        <v>27.59235056597468</v>
+        <v>78.58979207709835</v>
       </c>
       <c r="L34" t="n">
-        <v>129.2034838475267</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M34" t="n">
-        <v>168.3915220397489</v>
+        <v>219.3889635508726</v>
       </c>
       <c r="N34" t="n">
-        <v>212.0823726951852</v>
+        <v>263.0798142063089</v>
       </c>
       <c r="O34" t="n">
         <v>313.6935059767372</v>
@@ -6885,25 +6885,25 @@
         <v>410.5500334608164</v>
       </c>
       <c r="S34" t="n">
+        <v>410.5500334608164</v>
+      </c>
+      <c r="T34" t="n">
         <v>306.8757825868728</v>
       </c>
-      <c r="T34" t="n">
-        <v>215.5595024171034</v>
-      </c>
       <c r="U34" t="n">
-        <v>111.8852515431599</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V34" t="n">
-        <v>8.211000669216329</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W34" t="n">
-        <v>8.211000669216329</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X34" t="n">
-        <v>8.211000669216329</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.211000669216329</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>203.2015317129293</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="C35" t="n">
+        <v>215.5595024171034</v>
+      </c>
+      <c r="D35" t="n">
+        <v>215.5595024171034</v>
+      </c>
+      <c r="E35" t="n">
+        <v>215.5595024171034</v>
+      </c>
+      <c r="F35" t="n">
         <v>111.8852515431599</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>111.8852515431599</v>
-      </c>
-      <c r="E35" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="F35" t="n">
-        <v>8.211000669216329</v>
-      </c>
-      <c r="G35" t="n">
-        <v>8.211000669216329</v>
       </c>
       <c r="H35" t="n">
         <v>8.211000669216329</v>
@@ -6940,19 +6940,19 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K35" t="n">
-        <v>16.05657832410927</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="L35" t="n">
-        <v>16.05657832410927</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M35" t="n">
-        <v>117.6677116056613</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N35" t="n">
-        <v>219.2788448872134</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="O35" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="P35" t="n">
         <v>410.5500334608164</v>
@@ -6964,25 +6964,25 @@
         <v>410.5500334608164</v>
       </c>
       <c r="S35" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608164</v>
       </c>
       <c r="T35" t="n">
         <v>306.8757825868728</v>
       </c>
       <c r="U35" t="n">
-        <v>306.8757825868728</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="V35" t="n">
-        <v>306.8757825868728</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="W35" t="n">
-        <v>306.8757825868728</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="X35" t="n">
-        <v>306.8757825868728</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="Y35" t="n">
-        <v>306.8757825868728</v>
+        <v>215.5595024171034</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>129.2883968309146</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="C36" t="n">
-        <v>129.2883968309146</v>
+        <v>19.37645369591205</v>
       </c>
       <c r="D36" t="n">
-        <v>129.2883968309146</v>
+        <v>19.37645369591205</v>
       </c>
       <c r="E36" t="n">
-        <v>64.35314396351237</v>
+        <v>19.37645369591205</v>
       </c>
       <c r="F36" t="n">
-        <v>12.12078812845064</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G36" t="n">
         <v>8.211000669216329</v>
@@ -7019,16 +7019,16 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K36" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L36" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="M36" t="n">
-        <v>211.4332672323204</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="N36" t="n">
-        <v>211.4332672323204</v>
+        <v>137.933208384383</v>
       </c>
       <c r="O36" t="n">
         <v>239.5443416659351</v>
@@ -7046,22 +7046,22 @@
         <v>410.5500334608164</v>
       </c>
       <c r="T36" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U36" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V36" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W36" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X36" t="n">
-        <v>306.8757825868728</v>
+        <v>99.52728083898576</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.2015317129293</v>
+        <v>99.52728083898576</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.4931089534106</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="C37" t="n">
-        <v>140.4931089534106</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="D37" t="n">
-        <v>140.4931089534106</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="E37" t="n">
-        <v>140.4931089534106</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="F37" t="n">
-        <v>140.4931089534106</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="G37" t="n">
-        <v>140.4931089534106</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H37" t="n">
-        <v>70.92948027586836</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I37" t="n">
         <v>8.211000669216329</v>
@@ -7101,16 +7101,16 @@
         <v>78.58979207709835</v>
       </c>
       <c r="L37" t="n">
-        <v>180.2009253586504</v>
+        <v>151.1774109011782</v>
       </c>
       <c r="M37" t="n">
-        <v>219.3889635508726</v>
+        <v>252.7885441827302</v>
       </c>
       <c r="N37" t="n">
-        <v>263.0798142063089</v>
+        <v>296.4793948381665</v>
       </c>
       <c r="O37" t="n">
-        <v>364.6909474878609</v>
+        <v>320.8186714730658</v>
       </c>
       <c r="P37" t="n">
         <v>410.5500334608164</v>
@@ -7119,28 +7119,28 @@
         <v>410.5500334608164</v>
       </c>
       <c r="R37" t="n">
-        <v>410.5500334608164</v>
+        <v>325.7680018845571</v>
       </c>
       <c r="S37" t="n">
-        <v>410.5500334608164</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="T37" t="n">
-        <v>410.5500334608164</v>
+        <v>118.41950013667</v>
       </c>
       <c r="U37" t="n">
-        <v>306.8757825868728</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="V37" t="n">
-        <v>306.8757825868728</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="W37" t="n">
-        <v>203.2015317129293</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="X37" t="n">
-        <v>203.2015317129293</v>
+        <v>83.59665646900017</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.2015317129293</v>
+        <v>83.59665646900017</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>410.5500334608164</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="C38" t="n">
-        <v>306.8757825868728</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D38" t="n">
-        <v>306.8757825868728</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E38" t="n">
-        <v>306.8757825868728</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F38" t="n">
-        <v>306.8757825868728</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G38" t="n">
-        <v>203.2015317129293</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H38" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="I38" t="n">
         <v>8.211000669216329</v>
@@ -7177,7 +7177,7 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K38" t="n">
-        <v>105.7166336161603</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L38" t="n">
         <v>207.3277668977123</v>
@@ -7204,22 +7204,22 @@
         <v>410.5500334608164</v>
       </c>
       <c r="T38" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="U38" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="V38" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W38" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X38" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y38" t="n">
-        <v>410.5500334608164</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>220.8933128665341</v>
+        <v>172.2070843391477</v>
       </c>
       <c r="C39" t="n">
-        <v>220.8933128665341</v>
+        <v>172.2070843391477</v>
       </c>
       <c r="D39" t="n">
-        <v>166.2611053433361</v>
+        <v>117.5748768159497</v>
       </c>
       <c r="E39" t="n">
-        <v>123.9389132379766</v>
+        <v>52.63962394854751</v>
       </c>
       <c r="F39" t="n">
-        <v>71.70655740291487</v>
+        <v>52.63962394854751</v>
       </c>
       <c r="G39" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="H39" t="n">
         <v>8.211000669216329</v>
@@ -7262,10 +7262,10 @@
         <v>211.4332672323204</v>
       </c>
       <c r="M39" t="n">
+        <v>211.4332672323204</v>
+      </c>
+      <c r="N39" t="n">
         <v>313.0444005138725</v>
-      </c>
-      <c r="N39" t="n">
-        <v>410.5500334608164</v>
       </c>
       <c r="O39" t="n">
         <v>410.5500334608164</v>
@@ -7283,22 +7283,22 @@
         <v>324.5675637404776</v>
       </c>
       <c r="T39" t="n">
-        <v>324.5675637404776</v>
+        <v>220.8933128665341</v>
       </c>
       <c r="U39" t="n">
-        <v>324.5675637404776</v>
+        <v>172.2070843391477</v>
       </c>
       <c r="V39" t="n">
-        <v>324.5675637404776</v>
+        <v>172.2070843391477</v>
       </c>
       <c r="W39" t="n">
-        <v>324.5675637404776</v>
+        <v>172.2070843391477</v>
       </c>
       <c r="X39" t="n">
-        <v>220.8933128665341</v>
+        <v>172.2070843391477</v>
       </c>
       <c r="Y39" t="n">
-        <v>220.8933128665341</v>
+        <v>172.2070843391477</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.6594187333523</v>
+        <v>118.41950013667</v>
       </c>
       <c r="C40" t="n">
-        <v>64.02543794349874</v>
+        <v>43.78551934681639</v>
       </c>
       <c r="D40" t="n">
-        <v>8.211000669216329</v>
+        <v>43.78551934681639</v>
       </c>
       <c r="E40" t="n">
-        <v>8.211000669216329</v>
+        <v>43.78551934681639</v>
       </c>
       <c r="F40" t="n">
-        <v>8.211000669216329</v>
+        <v>43.78551934681639</v>
       </c>
       <c r="G40" t="n">
-        <v>8.211000669216329</v>
+        <v>43.78551934681639</v>
       </c>
       <c r="H40" t="n">
-        <v>8.211000669216329</v>
+        <v>43.78551934681639</v>
       </c>
       <c r="I40" t="n">
         <v>8.211000669216329</v>
@@ -7338,19 +7338,19 @@
         <v>78.58979207709835</v>
       </c>
       <c r="L40" t="n">
-        <v>180.2009253586504</v>
+        <v>175.8633247664844</v>
       </c>
       <c r="M40" t="n">
-        <v>219.3889635508726</v>
+        <v>277.4744580480365</v>
       </c>
       <c r="N40" t="n">
-        <v>308.9389001792644</v>
+        <v>379.0855913295885</v>
       </c>
       <c r="O40" t="n">
-        <v>410.5500334608164</v>
+        <v>403.4248679644878</v>
       </c>
       <c r="P40" t="n">
-        <v>410.5500334608164</v>
+        <v>403.4248679644878</v>
       </c>
       <c r="Q40" t="n">
         <v>410.5500334608164</v>
@@ -7359,25 +7359,25 @@
         <v>325.7680018845571</v>
       </c>
       <c r="S40" t="n">
-        <v>325.7680018845571</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="T40" t="n">
-        <v>325.7680018845571</v>
+        <v>118.41950013667</v>
       </c>
       <c r="U40" t="n">
-        <v>242.3336696072959</v>
+        <v>118.41950013667</v>
       </c>
       <c r="V40" t="n">
-        <v>242.3336696072959</v>
+        <v>118.41950013667</v>
       </c>
       <c r="W40" t="n">
-        <v>242.3336696072959</v>
+        <v>118.41950013667</v>
       </c>
       <c r="X40" t="n">
-        <v>138.6594187333523</v>
+        <v>118.41950013667</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.6594187333523</v>
+        <v>118.41950013667</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>203.2015317129293</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="C41" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="D41" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="E41" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="F41" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="G41" t="n">
         <v>8.211000669216329</v>
@@ -7414,19 +7414,19 @@
         <v>8.211000669216329</v>
       </c>
       <c r="K41" t="n">
-        <v>109.8221339507684</v>
+        <v>16.05657832410927</v>
       </c>
       <c r="L41" t="n">
-        <v>211.4332672323204</v>
+        <v>16.05657832410927</v>
       </c>
       <c r="M41" t="n">
-        <v>313.0444005138725</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N41" t="n">
-        <v>410.5500334608164</v>
+        <v>219.2788448872134</v>
       </c>
       <c r="O41" t="n">
-        <v>410.5500334608164</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P41" t="n">
         <v>410.5500334608164</v>
@@ -7435,28 +7435,28 @@
         <v>410.5500334608164</v>
       </c>
       <c r="R41" t="n">
-        <v>410.5500334608164</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="S41" t="n">
-        <v>410.5500334608164</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="T41" t="n">
-        <v>410.5500334608164</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="U41" t="n">
-        <v>410.5500334608164</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="V41" t="n">
-        <v>410.5500334608164</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="W41" t="n">
-        <v>410.5500334608164</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="X41" t="n">
-        <v>410.5500334608164</v>
+        <v>8.211000669216329</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.8757825868728</v>
+        <v>8.211000669216329</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>306.8757825868728</v>
+        <v>48.10569642073058</v>
       </c>
       <c r="C42" t="n">
-        <v>306.8757825868728</v>
+        <v>48.10569642073058</v>
       </c>
       <c r="D42" t="n">
-        <v>297.6547448759412</v>
+        <v>48.10569642073058</v>
       </c>
       <c r="E42" t="n">
-        <v>193.9804940019977</v>
+        <v>48.10569642073058</v>
       </c>
       <c r="F42" t="n">
-        <v>97.19388105774173</v>
+        <v>48.10569642073058</v>
       </c>
       <c r="G42" t="n">
         <v>8.211000669216329</v>
@@ -7505,7 +7505,7 @@
         <v>308.9389001792644</v>
       </c>
       <c r="O42" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9389001792644</v>
       </c>
       <c r="P42" t="n">
         <v>410.5500334608164</v>
@@ -7514,28 +7514,28 @@
         <v>410.5500334608164</v>
       </c>
       <c r="R42" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="S42" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="T42" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="U42" t="n">
-        <v>410.5500334608164</v>
+        <v>255.4541981686177</v>
       </c>
       <c r="V42" t="n">
-        <v>410.5500334608164</v>
+        <v>151.7799472946741</v>
       </c>
       <c r="W42" t="n">
-        <v>410.5500334608164</v>
+        <v>48.10569642073058</v>
       </c>
       <c r="X42" t="n">
-        <v>306.8757825868728</v>
+        <v>48.10569642073058</v>
       </c>
       <c r="Y42" t="n">
-        <v>306.8757825868728</v>
+        <v>48.10569642073058</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.211000669216329</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="C43" t="n">
-        <v>8.211000669216329</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="D43" t="n">
-        <v>8.211000669216329</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="E43" t="n">
         <v>8.211000669216329</v>
@@ -7590,31 +7590,31 @@
         <v>410.5500334608164</v>
       </c>
       <c r="Q43" t="n">
-        <v>410.5500334608164</v>
+        <v>373.265611568772</v>
       </c>
       <c r="R43" t="n">
-        <v>410.5500334608164</v>
+        <v>313.7246509706374</v>
       </c>
       <c r="S43" t="n">
-        <v>410.5500334608164</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="T43" t="n">
-        <v>410.5500334608164</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="U43" t="n">
-        <v>410.5500334608164</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="V43" t="n">
-        <v>410.5500334608164</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="W43" t="n">
-        <v>306.8757825868728</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="X43" t="n">
-        <v>215.5595024171034</v>
+        <v>106.3761492227504</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.8852515431599</v>
+        <v>106.3761492227504</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>410.5500334608164</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="C44" t="n">
-        <v>306.8757825868728</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="D44" t="n">
-        <v>306.8757825868728</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="E44" t="n">
-        <v>306.8757825868728</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="F44" t="n">
         <v>215.5595024171034</v>
@@ -7642,58 +7642,58 @@
         <v>111.8852515431599</v>
       </c>
       <c r="H44" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K44" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L44" t="n">
-        <v>211.4332672323204</v>
+        <v>16.05657832410924</v>
       </c>
       <c r="M44" t="n">
-        <v>313.0444005138725</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N44" t="n">
-        <v>320.8899781687654</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="O44" t="n">
         <v>320.8899781687654</v>
       </c>
       <c r="P44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="X44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Y44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="C45" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="D45" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="E45" t="n">
         <v>203.2015317129293</v>
       </c>
       <c r="F45" t="n">
-        <v>160.8150716213033</v>
+        <v>201.3667557352877</v>
       </c>
       <c r="G45" t="n">
-        <v>71.8321912327779</v>
+        <v>112.3838753467623</v>
       </c>
       <c r="H45" t="n">
-        <v>8.211000669216329</v>
+        <v>48.76268478320075</v>
       </c>
       <c r="I45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K45" t="n">
+        <v>8.211000669216327</v>
+      </c>
+      <c r="L45" t="n">
         <v>109.8221339507684</v>
       </c>
-      <c r="L45" t="n">
-        <v>211.4332672323204</v>
-      </c>
       <c r="M45" t="n">
-        <v>313.0444005138725</v>
+        <v>137.933208384383</v>
       </c>
       <c r="N45" t="n">
-        <v>313.0444005138725</v>
+        <v>239.544341665935</v>
       </c>
       <c r="O45" t="n">
-        <v>410.5500334608164</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P45" t="n">
-        <v>410.5500334608164</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R45" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S45" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T45" t="n">
         <v>306.8757825868728</v>
@@ -7772,7 +7772,7 @@
         <v>306.8757825868728</v>
       </c>
       <c r="Y45" t="n">
-        <v>306.8757825868728</v>
+        <v>203.2015317129293</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>407.5610969492218</v>
+        <v>149.9072602474618</v>
       </c>
       <c r="C46" t="n">
-        <v>407.5610969492218</v>
+        <v>149.9072602474618</v>
       </c>
       <c r="D46" t="n">
-        <v>307.1924025657452</v>
+        <v>149.9072602474618</v>
       </c>
       <c r="E46" t="n">
-        <v>209.0272540122111</v>
+        <v>149.9072602474618</v>
       </c>
       <c r="F46" t="n">
-        <v>111.8852515431599</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="G46" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="H46" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="I46" t="n">
-        <v>8.211000669216329</v>
+        <v>52.76525777841054</v>
       </c>
       <c r="J46" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K46" t="n">
         <v>34.92216468437709</v>
@@ -7815,43 +7815,43 @@
         <v>110.9942506148749</v>
       </c>
       <c r="M46" t="n">
-        <v>198.9402497298819</v>
+        <v>198.9402497298818</v>
       </c>
       <c r="N46" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081029</v>
       </c>
       <c r="O46" t="n">
         <v>364.486298865787</v>
       </c>
       <c r="P46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q46" t="n">
-        <v>410.5500334608164</v>
+        <v>373.265611568772</v>
       </c>
       <c r="R46" t="n">
-        <v>407.5610969492218</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="S46" t="n">
-        <v>407.5610969492218</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="T46" t="n">
-        <v>407.5610969492218</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="U46" t="n">
-        <v>407.5610969492218</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="V46" t="n">
-        <v>407.5610969492218</v>
+        <v>165.917109820885</v>
       </c>
       <c r="W46" t="n">
-        <v>407.5610969492218</v>
+        <v>149.9072602474618</v>
       </c>
       <c r="X46" t="n">
-        <v>407.5610969492218</v>
+        <v>149.9072602474618</v>
       </c>
       <c r="Y46" t="n">
-        <v>407.5610969492218</v>
+        <v>149.9072602474618</v>
       </c>
     </row>
   </sheetData>
@@ -9640,16 +9640,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>322.7273594101846</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>338.4039233351913</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M23" t="n">
-        <v>328.8367715575191</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O23" t="n">
         <v>332.7357197868909</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M24" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>233.9792204485374</v>
+        <v>229.8322504135797</v>
       </c>
       <c r="O24" t="n">
         <v>245.2337528096485</v>
       </c>
       <c r="P24" t="n">
-        <v>162.369432094749</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L26" t="n">
-        <v>243.6912408840205</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M26" t="n">
-        <v>332.9837415924769</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N26" t="n">
-        <v>332.050571961795</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>332.7357197868909</v>
+        <v>238.02303733572</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M27" t="n">
-        <v>170.5290586024371</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N27" t="n">
-        <v>233.9792204485374</v>
+        <v>159.7367367637521</v>
       </c>
       <c r="O27" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10114,10 +10114,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L29" t="n">
-        <v>243.6912408840205</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M29" t="n">
         <v>332.9837415924768</v>
@@ -10126,10 +10126,10 @@
         <v>332.050571961795</v>
       </c>
       <c r="O29" t="n">
-        <v>332.7357197868909</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>240.4789473395631</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>241.1918881450783</v>
+        <v>237.0449181101206</v>
       </c>
       <c r="M30" t="n">
-        <v>240.6245722522647</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O30" t="n">
         <v>245.2337528096485</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10354,16 +10354,16 @@
         <v>322.7273594101846</v>
       </c>
       <c r="L32" t="n">
-        <v>243.6912408840205</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M32" t="n">
-        <v>332.9837415924768</v>
+        <v>238.271059141306</v>
       </c>
       <c r="N32" t="n">
-        <v>332.050571961795</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L33" t="n">
-        <v>241.1918881450783</v>
+        <v>166.949404460293</v>
       </c>
       <c r="M33" t="n">
-        <v>240.6245722522647</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O33" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,10 +10588,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>228.0146769590138</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M35" t="n">
         <v>332.9837415924768</v>
@@ -10600,10 +10600,10 @@
         <v>332.050571961795</v>
       </c>
       <c r="O35" t="n">
-        <v>332.7357197868909</v>
+        <v>328.5887497519331</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L36" t="n">
-        <v>241.1918881450783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>159.7367367637521</v>
       </c>
       <c r="O36" t="n">
-        <v>170.9912691248632</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P36" t="n">
         <v>236.6119157795343</v>
@@ -10825,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>318.5803893752269</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L38" t="n">
-        <v>338.4039233351913</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M38" t="n">
         <v>332.9837415924768</v>
@@ -10910,13 +10910,13 @@
         <v>241.1918881450783</v>
       </c>
       <c r="M39" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>229.8322504135796</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>241.0867827746908</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>322.7273594101846</v>
+        <v>228.0146769590138</v>
       </c>
       <c r="L41" t="n">
-        <v>338.4039233351913</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
         <v>332.9837415924768</v>
       </c>
       <c r="N41" t="n">
-        <v>327.9036019268373</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868909</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11153,10 +11153,10 @@
         <v>233.9792204485374</v>
       </c>
       <c r="O42" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>322.7273594101846</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>338.4039233351913</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M44" t="n">
         <v>332.9837415924768</v>
       </c>
       <c r="N44" t="n">
-        <v>237.3378895106242</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>240.4789473395631</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>241.1918881450783</v>
       </c>
       <c r="M45" t="n">
-        <v>244.7715422872224</v>
+        <v>170.5290586024371</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0867827746908</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -24208,16 +24208,16 @@
         <v>291.430047371318</v>
       </c>
       <c r="C23" t="n">
-        <v>242.1313037597602</v>
+        <v>273.9690974788449</v>
       </c>
       <c r="D23" t="n">
-        <v>263.3792473285204</v>
+        <v>160.7417389633163</v>
       </c>
       <c r="E23" t="n">
-        <v>290.6265757800992</v>
+        <v>187.9890674148951</v>
       </c>
       <c r="F23" t="n">
-        <v>315.5722514495488</v>
+        <v>212.9347430843447</v>
       </c>
       <c r="G23" t="n">
         <v>323.9989432229725</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>58.56532364898706</v>
       </c>
       <c r="S23" t="n">
-        <v>15.07876692887861</v>
+        <v>117.7162752940827</v>
       </c>
       <c r="T23" t="n">
-        <v>29.15454690676462</v>
+        <v>41.38893790389696</v>
       </c>
       <c r="U23" t="n">
         <v>160.0418586156739</v>
@@ -24274,7 +24274,7 @@
         <v>278.4273063863064</v>
       </c>
       <c r="Y23" t="n">
-        <v>192.2966359986868</v>
+        <v>294.9341443638909</v>
       </c>
     </row>
     <row r="24">
@@ -24290,13 +24290,13 @@
         <v>81.40470469615312</v>
       </c>
       <c r="D24" t="n">
-        <v>54.97157057656008</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>66.34128616323832</v>
       </c>
       <c r="F24" t="n">
-        <v>53.76541810122126</v>
+        <v>19.50357200562565</v>
       </c>
       <c r="G24" t="n">
         <v>46.03972287104801</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.854039860480512</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>80.3793768116752</v>
       </c>
       <c r="T24" t="n">
         <v>108.860934402659</v>
       </c>
       <c r="U24" t="n">
-        <v>32.00007942360808</v>
+        <v>32.0000794236081</v>
       </c>
       <c r="V24" t="n">
-        <v>38.85928449205853</v>
+        <v>38.85928449205855</v>
       </c>
       <c r="W24" t="n">
-        <v>160.391188868757</v>
+        <v>57.75368050355289</v>
       </c>
       <c r="X24" t="n">
-        <v>11.83168254611074</v>
+        <v>114.4691909113149</v>
       </c>
       <c r="Y24" t="n">
         <v>114.3789014851417</v>
@@ -24381,13 +24381,13 @@
         <v>76.68718506629614</v>
       </c>
       <c r="H25" t="n">
-        <v>66.50985793221203</v>
+        <v>70.92337821527695</v>
       </c>
       <c r="I25" t="n">
         <v>64.14668063509566</v>
       </c>
       <c r="J25" t="n">
-        <v>2.055385824510154</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>30.07529537960552</v>
+        <v>132.7128037448096</v>
       </c>
       <c r="T25" t="n">
-        <v>34.00428677091476</v>
+        <v>136.6417951361189</v>
       </c>
       <c r="U25" t="n">
-        <v>195.0152350643283</v>
+        <v>92.37772669912417</v>
       </c>
       <c r="V25" t="n">
-        <v>160.8338490316654</v>
+        <v>58.19634066646128</v>
       </c>
       <c r="W25" t="n">
-        <v>195.2192040444284</v>
+        <v>92.58169567922428</v>
       </c>
       <c r="X25" t="n">
         <v>134.4058610968745</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.64335069472806</v>
+        <v>124.9227246013774</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>333.48337608491</v>
+        <v>333.4833760849101</v>
       </c>
       <c r="C26" t="n">
         <v>316.022426192437</v>
       </c>
       <c r="D26" t="n">
-        <v>305.4325760421124</v>
+        <v>305.4325760421125</v>
       </c>
       <c r="E26" t="n">
         <v>332.6799044936913</v>
       </c>
       <c r="F26" t="n">
-        <v>357.6255801631409</v>
+        <v>357.625580163141</v>
       </c>
       <c r="G26" t="n">
-        <v>366.0522719365645</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H26" t="n">
-        <v>187.5868281719925</v>
+        <v>290.2243365371967</v>
       </c>
       <c r="I26" t="n">
-        <v>58.5879156266313</v>
+        <v>161.2254239918354</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>10.21553499450741</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.13209564247073</v>
+        <v>159.7696040076748</v>
       </c>
       <c r="T26" t="n">
         <v>173.8453839855609</v>
       </c>
       <c r="U26" t="n">
-        <v>202.095187329266</v>
+        <v>109.6732139585693</v>
       </c>
       <c r="V26" t="n">
-        <v>278.5017928915644</v>
+        <v>175.8642845263603</v>
       </c>
       <c r="W26" t="n">
-        <v>299.9905031388425</v>
+        <v>197.3529947736384</v>
       </c>
       <c r="X26" t="n">
-        <v>320.4806350998985</v>
+        <v>320.4806350998986</v>
       </c>
       <c r="Y26" t="n">
         <v>336.9874730774831</v>
@@ -24524,7 +24524,7 @@
         <v>117.2827180712968</v>
       </c>
       <c r="C27" t="n">
-        <v>123.4580334097452</v>
+        <v>20.82052504454114</v>
       </c>
       <c r="D27" t="n">
         <v>98.19459998606825</v>
@@ -24542,7 +24542,7 @@
         <v>62.98497865792596</v>
       </c>
       <c r="I27" t="n">
-        <v>40.14616727284457</v>
+        <v>40.14616727284458</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>19.79519716006321</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T27" t="n">
-        <v>48.27675475104699</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U27" t="n">
-        <v>176.6909165024043</v>
+        <v>137.1951677084052</v>
       </c>
       <c r="V27" t="n">
-        <v>80.91261320565066</v>
+        <v>80.91261320565067</v>
       </c>
       <c r="W27" t="n">
-        <v>162.94876878835</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X27" t="n">
         <v>156.522519624907</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.4322301987339</v>
+        <v>53.79472183352976</v>
       </c>
     </row>
     <row r="28">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.94400623816269</v>
+        <v>130.5815146033668</v>
       </c>
       <c r="C28" t="n">
-        <v>15.35884715485322</v>
+        <v>117.9963555200573</v>
       </c>
       <c r="D28" t="n">
         <v>99.36500743964186</v>
@@ -24615,7 +24615,7 @@
         <v>96.17058244436075</v>
       </c>
       <c r="G28" t="n">
-        <v>118.7405137798883</v>
+        <v>28.33739641181653</v>
       </c>
       <c r="H28" t="n">
         <v>112.9767069288691</v>
@@ -24624,7 +24624,7 @@
         <v>106.2000093486878</v>
       </c>
       <c r="J28" t="n">
-        <v>44.10871453810227</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>36.91157767312389</v>
       </c>
       <c r="R28" t="n">
         <v>128.042925798599</v>
       </c>
       <c r="S28" t="n">
-        <v>72.12862409319764</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T28" t="n">
-        <v>125.2035841547631</v>
+        <v>178.695123849711</v>
       </c>
       <c r="U28" t="n">
         <v>237.0685637779204</v>
       </c>
       <c r="V28" t="n">
-        <v>202.8871777452575</v>
+        <v>100.2496693800534</v>
       </c>
       <c r="W28" t="n">
         <v>237.2725327580205</v>
       </c>
       <c r="X28" t="n">
-        <v>176.4591898104667</v>
+        <v>73.82168144526256</v>
       </c>
       <c r="Y28" t="n">
-        <v>169.3341877735243</v>
+        <v>66.69667940832019</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>243.0802587168383</v>
+        <v>333.48337608491</v>
       </c>
       <c r="C29" t="n">
-        <v>213.3849178272329</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D29" t="n">
         <v>305.4325760421124</v>
@@ -24697,7 +24697,7 @@
         <v>366.0522719365645</v>
       </c>
       <c r="H29" t="n">
-        <v>290.2243365371966</v>
+        <v>199.8212191691249</v>
       </c>
       <c r="I29" t="n">
         <v>161.2254239918354</v>
@@ -24733,22 +24733,22 @@
         <v>159.7696040076748</v>
       </c>
       <c r="T29" t="n">
-        <v>173.8453839855608</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U29" t="n">
-        <v>99.45767896406187</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V29" t="n">
-        <v>175.8642845263603</v>
+        <v>278.5017928915644</v>
       </c>
       <c r="W29" t="n">
-        <v>299.9905031388425</v>
+        <v>197.3529947736384</v>
       </c>
       <c r="X29" t="n">
-        <v>320.4806350998985</v>
+        <v>217.8431267346944</v>
       </c>
       <c r="Y29" t="n">
-        <v>336.9874730774831</v>
+        <v>234.349964712279</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.2827180712968</v>
+        <v>14.64520970609274</v>
       </c>
       <c r="C30" t="n">
-        <v>123.4580334097452</v>
+        <v>33.54855360723994</v>
       </c>
       <c r="D30" t="n">
-        <v>98.19459998606824</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E30" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F30" t="n">
-        <v>95.81874681481337</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G30" t="n">
-        <v>88.09305158464012</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H30" t="n">
-        <v>62.98497865792595</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>40.14616727284456</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.90736857407262</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S30" t="n">
-        <v>32.02958815719553</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T30" t="n">
         <v>150.9142631162511</v>
       </c>
       <c r="U30" t="n">
-        <v>176.6909165024043</v>
+        <v>74.05340813720022</v>
       </c>
       <c r="V30" t="n">
-        <v>80.91261320565064</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W30" t="n">
-        <v>99.80700921714498</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X30" t="n">
-        <v>53.88501125970288</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y30" t="n">
         <v>156.4322301987339</v>
@@ -24840,19 +24840,19 @@
         <v>130.5815146033668</v>
       </c>
       <c r="C31" t="n">
-        <v>117.9963555200573</v>
+        <v>15.35884715485324</v>
       </c>
       <c r="D31" t="n">
-        <v>99.36500743964184</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E31" t="n">
-        <v>97.18349706799866</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>96.17058244436073</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G31" t="n">
-        <v>118.7405137798882</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H31" t="n">
         <v>112.9767069288691</v>
@@ -24861,7 +24861,7 @@
         <v>106.2000093486878</v>
       </c>
       <c r="J31" t="n">
-        <v>44.10871453810226</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.91157767312387</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>128.042925798599</v>
+        <v>25.40541743339489</v>
       </c>
       <c r="S31" t="n">
-        <v>174.7661324584017</v>
+        <v>115.8205814662485</v>
       </c>
       <c r="T31" t="n">
         <v>178.695123849711</v>
@@ -24897,16 +24897,16 @@
         <v>237.0685637779204</v>
       </c>
       <c r="V31" t="n">
-        <v>100.2496693800534</v>
+        <v>202.8871777452575</v>
       </c>
       <c r="W31" t="n">
-        <v>134.6350243928164</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X31" t="n">
-        <v>86.05607244239489</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.69667940832016</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
     <row r="32">
@@ -24925,13 +24925,13 @@
         <v>261.3238615040102</v>
       </c>
       <c r="E32" t="n">
-        <v>198.1680725875173</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F32" t="n">
-        <v>313.5168656250387</v>
+        <v>210.8793572598346</v>
       </c>
       <c r="G32" t="n">
-        <v>321.9435573984623</v>
+        <v>219.3060490332582</v>
       </c>
       <c r="H32" t="n">
         <v>246.1156219990944</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.6608894695726</v>
+        <v>13.02338110436847</v>
       </c>
       <c r="T32" t="n">
-        <v>129.7366694474586</v>
+        <v>95.84348990386377</v>
       </c>
       <c r="U32" t="n">
-        <v>55.34896442595962</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V32" t="n">
-        <v>131.755569988258</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W32" t="n">
-        <v>153.2442802355361</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X32" t="n">
         <v>276.3719205617963</v>
@@ -24998,7 +24998,7 @@
         <v>73.17400353319456</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D33" t="n">
         <v>54.08588544796598</v>
@@ -25013,7 +25013,7 @@
         <v>43.98433704653786</v>
       </c>
       <c r="H33" t="n">
-        <v>14.62111965936527</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S33" t="n">
         <v>78.32399098716505</v>
@@ -25052,13 +25052,13 @@
         <v>4.168040212944732</v>
       </c>
       <c r="U33" t="n">
-        <v>132.582201964302</v>
+        <v>29.94469359909795</v>
       </c>
       <c r="V33" t="n">
-        <v>139.4414070327525</v>
+        <v>49.03828966468076</v>
       </c>
       <c r="W33" t="n">
-        <v>55.69829467904273</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X33" t="n">
         <v>112.4138050868047</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.47280006526452</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>73.88764098195506</v>
@@ -25092,10 +25092,10 @@
         <v>74.63179924178598</v>
       </c>
       <c r="H34" t="n">
-        <v>68.8679923907668</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.09129481058551</v>
+        <v>24.391461533341</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>83.93421126049671</v>
       </c>
       <c r="S34" t="n">
-        <v>28.01990955509538</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T34" t="n">
-        <v>44.18329194353697</v>
+        <v>31.94890094640462</v>
       </c>
       <c r="U34" t="n">
-        <v>90.32234087461401</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V34" t="n">
-        <v>56.14095484195113</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W34" t="n">
         <v>193.1638182199182</v>
@@ -25143,7 +25143,7 @@
         <v>132.3504752723644</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.225473235422</v>
+        <v>22.58796487021792</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>186.7371531816037</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C35" t="n">
-        <v>181.510594286263</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D35" t="n">
         <v>261.3238615040102</v>
@@ -25171,7 +25171,7 @@
         <v>321.9435573984623</v>
       </c>
       <c r="H35" t="n">
-        <v>246.1156219990944</v>
+        <v>143.4781136338903</v>
       </c>
       <c r="I35" t="n">
         <v>117.1167094537331</v>
@@ -25204,13 +25204,13 @@
         <v>56.50993782447691</v>
       </c>
       <c r="S35" t="n">
-        <v>13.02338110436847</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T35" t="n">
-        <v>129.7366694474586</v>
+        <v>27.09916108225448</v>
       </c>
       <c r="U35" t="n">
-        <v>157.9864727911637</v>
+        <v>67.58335542309197</v>
       </c>
       <c r="V35" t="n">
         <v>234.3930783534621</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>54.08588544796598</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>40.65623378028234</v>
       </c>
       <c r="G36" t="n">
-        <v>40.11364746189589</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H36" t="n">
         <v>18.87626411982369</v>
@@ -25286,22 +25286,22 @@
         <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>106.8055485781488</v>
+        <v>4.168040212944732</v>
       </c>
       <c r="U36" t="n">
         <v>132.582201964302</v>
       </c>
       <c r="V36" t="n">
-        <v>139.4414070327525</v>
+        <v>36.8038986675484</v>
       </c>
       <c r="W36" t="n">
-        <v>55.69829467904273</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X36" t="n">
-        <v>112.4138050868047</v>
+        <v>9.776296721600602</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.686007295427487</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.39146153334099</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C37" t="n">
         <v>73.88764098195506</v>
@@ -25326,13 +25326,13 @@
         <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.6574179202995</v>
+        <v>28.01990955509538</v>
       </c>
       <c r="T37" t="n">
-        <v>134.5864093116087</v>
+        <v>31.94890094640462</v>
       </c>
       <c r="U37" t="n">
-        <v>90.32234087461401</v>
+        <v>158.485234008825</v>
       </c>
       <c r="V37" t="n">
         <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
-        <v>90.52630985471413</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X37" t="n">
         <v>132.3504752723644</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>289.3746615468078</v>
+        <v>186.7371531816037</v>
       </c>
       <c r="C38" t="n">
-        <v>169.2762032891306</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D38" t="n">
         <v>261.3238615040102</v>
@@ -25405,13 +25405,13 @@
         <v>313.5168656250387</v>
       </c>
       <c r="G38" t="n">
-        <v>219.3060490332582</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H38" t="n">
-        <v>155.7125046310226</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I38" t="n">
-        <v>14.47920108852904</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>115.6608894695726</v>
       </c>
       <c r="T38" t="n">
-        <v>129.7366694474586</v>
+        <v>27.09916108225448</v>
       </c>
       <c r="U38" t="n">
-        <v>157.9864727911637</v>
+        <v>55.34896442595962</v>
       </c>
       <c r="V38" t="n">
         <v>234.3930783534621</v>
@@ -25459,7 +25459,7 @@
         <v>276.3719205617963</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.8787585393808</v>
+        <v>202.4756411713091</v>
       </c>
     </row>
     <row r="39">
@@ -25478,16 +25478,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>22.38693015442225</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>106.8055485781488</v>
+        <v>4.168040212944732</v>
       </c>
       <c r="U39" t="n">
-        <v>132.582201964302</v>
+        <v>84.38283572218953</v>
       </c>
       <c r="V39" t="n">
         <v>139.4414070327525</v>
@@ -25535,7 +25535,7 @@
         <v>158.3358030442468</v>
       </c>
       <c r="X39" t="n">
-        <v>9.776296721600602</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y39" t="n">
         <v>112.3235156606316</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E40" t="n">
         <v>53.0747825298964</v>
@@ -25569,7 +25569,7 @@
         <v>68.8679923907668</v>
       </c>
       <c r="I40" t="n">
-        <v>62.09129481058551</v>
+        <v>26.87252131976146</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.6574179202995</v>
+        <v>28.01990955509538</v>
       </c>
       <c r="T40" t="n">
-        <v>134.5864093116087</v>
+        <v>31.94890094640462</v>
       </c>
       <c r="U40" t="n">
-        <v>110.3598602853295</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V40" t="n">
         <v>158.7784632071552</v>
@@ -25614,7 +25614,7 @@
         <v>193.1638182199182</v>
       </c>
       <c r="X40" t="n">
-        <v>29.71296690716028</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y40" t="n">
         <v>125.225473235422</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.845867719706</v>
+        <v>333.4833760849101</v>
       </c>
       <c r="C41" t="n">
-        <v>225.6193088243653</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D41" t="n">
-        <v>305.4325760421124</v>
+        <v>305.4325760421125</v>
       </c>
       <c r="E41" t="n">
         <v>332.6799044936913</v>
       </c>
       <c r="F41" t="n">
-        <v>357.6255801631409</v>
+        <v>357.625580163141</v>
       </c>
       <c r="G41" t="n">
-        <v>263.4147635713604</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H41" t="n">
-        <v>290.2243365371966</v>
+        <v>290.2243365371967</v>
       </c>
       <c r="I41" t="n">
         <v>161.2254239918354</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>100.6186523625792</v>
+        <v>10.21553499450741</v>
       </c>
       <c r="S41" t="n">
-        <v>159.7696040076748</v>
+        <v>57.13209564247074</v>
       </c>
       <c r="T41" t="n">
-        <v>173.8453839855609</v>
+        <v>71.20787562035676</v>
       </c>
       <c r="U41" t="n">
-        <v>202.095187329266</v>
+        <v>99.4576789640619</v>
       </c>
       <c r="V41" t="n">
         <v>278.5017928915644</v>
@@ -25693,10 +25693,10 @@
         <v>299.9905031388425</v>
       </c>
       <c r="X41" t="n">
-        <v>320.4806350998985</v>
+        <v>320.4806350998986</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.349964712279</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="42">
@@ -25712,22 +25712,22 @@
         <v>123.4580334097452</v>
       </c>
       <c r="D42" t="n">
-        <v>89.06577265224595</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E42" t="n">
-        <v>5.757106511626347</v>
+        <v>108.3946148768304</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>48.59730279064103</v>
       </c>
       <c r="H42" t="n">
         <v>62.98497865792596</v>
       </c>
       <c r="I42" t="n">
-        <v>40.14616727284457</v>
+        <v>40.14616727284458</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.90736857407263</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>122.4327055252673</v>
@@ -25763,16 +25763,16 @@
         <v>150.9142631162511</v>
       </c>
       <c r="U42" t="n">
-        <v>176.6909165024043</v>
+        <v>74.05340813720022</v>
       </c>
       <c r="V42" t="n">
-        <v>183.5501215708548</v>
+        <v>80.91261320565067</v>
       </c>
       <c r="W42" t="n">
-        <v>202.4445175823491</v>
+        <v>99.80700921714501</v>
       </c>
       <c r="X42" t="n">
-        <v>53.88501125970288</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y42" t="n">
         <v>156.4322301987339</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.9440062381627</v>
+        <v>130.5815146033668</v>
       </c>
       <c r="C43" t="n">
         <v>117.9963555200573</v>
@@ -25794,7 +25794,7 @@
         <v>99.36500743964186</v>
       </c>
       <c r="E43" t="n">
-        <v>97.18349706799867</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>96.17058244436075</v>
@@ -25809,7 +25809,7 @@
         <v>106.2000093486878</v>
       </c>
       <c r="J43" t="n">
-        <v>44.10871453810227</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.91157767312388</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.042925798599</v>
+        <v>69.09737480644571</v>
       </c>
       <c r="S43" t="n">
-        <v>174.7661324584018</v>
+        <v>72.12862409319766</v>
       </c>
       <c r="T43" t="n">
-        <v>178.695123849711</v>
+        <v>76.0576154845069</v>
       </c>
       <c r="U43" t="n">
         <v>237.0685637779204</v>
@@ -25848,13 +25848,13 @@
         <v>202.8871777452575</v>
       </c>
       <c r="W43" t="n">
-        <v>134.6350243928164</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X43" t="n">
-        <v>86.05607244239491</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.69667940832019</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.48337608491</v>
+        <v>243.0802587168383</v>
       </c>
       <c r="C44" t="n">
-        <v>213.3849178272329</v>
+        <v>316.022426192437</v>
       </c>
       <c r="D44" t="n">
         <v>305.4325760421124</v>
@@ -25876,16 +25876,16 @@
         <v>332.6799044936913</v>
       </c>
       <c r="F44" t="n">
-        <v>267.2224627950692</v>
+        <v>254.9880717979368</v>
       </c>
       <c r="G44" t="n">
         <v>263.4147635713604</v>
       </c>
       <c r="H44" t="n">
-        <v>187.5868281719925</v>
+        <v>290.2243365371966</v>
       </c>
       <c r="I44" t="n">
-        <v>161.2254239918354</v>
+        <v>58.58791562663133</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25952,10 +25952,10 @@
         <v>98.19459998606825</v>
       </c>
       <c r="E45" t="n">
-        <v>5.757106511626347</v>
+        <v>108.3946148768304</v>
       </c>
       <c r="F45" t="n">
-        <v>53.85615132410365</v>
+        <v>94.00231859694824</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>40.14616727284457</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>122.4327055252673</v>
       </c>
       <c r="T45" t="n">
-        <v>48.27675475104701</v>
+        <v>48.27675475104702</v>
       </c>
       <c r="U45" t="n">
         <v>176.6909165024043</v>
@@ -26012,7 +26012,7 @@
         <v>156.522519624907</v>
       </c>
       <c r="Y45" t="n">
-        <v>156.4322301987339</v>
+        <v>53.79472183352978</v>
       </c>
     </row>
     <row r="46">
@@ -26028,16 +26028,16 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.10300541468416</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H46" t="n">
         <v>112.9767069288691</v>
@@ -26046,7 +26046,7 @@
         <v>106.2000093486878</v>
       </c>
       <c r="J46" t="n">
-        <v>44.10871453810227</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.91157767312388</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>125.0838786521203</v>
+        <v>25.4054174333949</v>
       </c>
       <c r="S46" t="n">
         <v>174.7661324584018</v>
@@ -26082,10 +26082,10 @@
         <v>237.0685637779204</v>
       </c>
       <c r="V46" t="n">
-        <v>202.8871777452575</v>
+        <v>100.2496693800534</v>
       </c>
       <c r="W46" t="n">
-        <v>237.2725327580205</v>
+        <v>221.4227816803316</v>
       </c>
       <c r="X46" t="n">
         <v>176.4591898104667</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>496990.3042857158</v>
+        <v>496990.3042857157</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>421952.1517983571</v>
+        <v>421952.151798357</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500562.9759258791</v>
+        <v>500562.9759258792</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500562.9759258793</v>
+        <v>500562.9759258792</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>421952.151798357</v>
+        <v>421952.1517983571</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170384</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170387</v>
       </c>
       <c r="D2" t="n">
         <v>819276.3387170384</v>
       </c>
       <c r="E2" t="n">
-        <v>422802.983118734</v>
+        <v>422802.9831187339</v>
       </c>
       <c r="F2" t="n">
         <v>422802.983118734</v>
       </c>
       <c r="G2" t="n">
-        <v>434856.651929152</v>
+        <v>434856.6519291519</v>
       </c>
       <c r="H2" t="n">
-        <v>434856.6519291519</v>
+        <v>434856.6519291518</v>
       </c>
       <c r="I2" t="n">
-        <v>493010.7357288497</v>
+        <v>493010.7357288496</v>
       </c>
       <c r="J2" t="n">
         <v>392959.8657457047</v>
       </c>
       <c r="K2" t="n">
-        <v>392959.8657457046</v>
+        <v>392959.8657457047</v>
       </c>
       <c r="L2" t="n">
-        <v>497774.2979157334</v>
+        <v>497774.2979157335</v>
       </c>
       <c r="M2" t="n">
-        <v>497774.2979157335</v>
+        <v>497774.2979157337</v>
       </c>
       <c r="N2" t="n">
         <v>497774.2979157335</v>
       </c>
       <c r="O2" t="n">
+        <v>392959.8657457046</v>
+      </c>
+      <c r="P2" t="n">
         <v>392959.8657457047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>392959.8657457046</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68929.6346013555</v>
+        <v>68929.63460135552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>27293.46886198344</v>
       </c>
       <c r="J3" t="n">
-        <v>35286.97163048181</v>
+        <v>35286.97163048182</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>199399.5792205975</v>
       </c>
       <c r="L4" t="n">
-        <v>259224.2061476247</v>
+        <v>259224.2061476248</v>
       </c>
       <c r="M4" t="n">
         <v>259224.2061476247</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338624.1184446455</v>
+        <v>338579.9826659645</v>
       </c>
       <c r="C6" t="n">
-        <v>338624.1184446457</v>
+        <v>338579.9826659648</v>
       </c>
       <c r="D6" t="n">
-        <v>338624.1184446455</v>
+        <v>338579.9826659644</v>
       </c>
       <c r="E6" t="n">
-        <v>125899.109146407</v>
+        <v>115943.1394777681</v>
       </c>
       <c r="F6" t="n">
-        <v>194828.7437477624</v>
+        <v>184872.7740791237</v>
       </c>
       <c r="G6" t="n">
-        <v>195456.9125607953</v>
+        <v>185802.284612417</v>
       </c>
       <c r="H6" t="n">
-        <v>199570.3133931698</v>
+        <v>189915.6854447914</v>
       </c>
       <c r="I6" t="n">
-        <v>195295.7659869846</v>
+        <v>187094.9901335987</v>
       </c>
       <c r="J6" t="n">
-        <v>147892.5169952962</v>
+        <v>137190.4693923317</v>
       </c>
       <c r="K6" t="n">
-        <v>183179.4886257779</v>
+        <v>172477.4410228135</v>
       </c>
       <c r="L6" t="n">
-        <v>185060.7458834193</v>
+        <v>176979.0590847057</v>
       </c>
       <c r="M6" t="n">
-        <v>224461.1183462758</v>
+        <v>216379.4315475623</v>
       </c>
       <c r="N6" t="n">
-        <v>224461.1183462758</v>
+        <v>216379.4315475621</v>
       </c>
       <c r="O6" t="n">
-        <v>183179.488625778</v>
+        <v>172477.4410228134</v>
       </c>
       <c r="P6" t="n">
-        <v>183179.4886257779</v>
+        <v>172477.4410228136</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>91.30379429216262</v>
       </c>
       <c r="J2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="K2" t="n">
         <v>49.25046557857051</v>
@@ -26724,7 +26724,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="O2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="P2" t="n">
         <v>49.25046557857051</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.16204325169439</v>
+        <v>86.1620432516944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.10871453810227</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.16204325169439</v>
+        <v>86.1620432516944</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.10871453810227</v>
+        <v>44.10871453810228</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29225,16 +29225,16 @@
         <v>91.30379429216262</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>29.70107339546514</v>
       </c>
       <c r="M25" t="n">
-        <v>49.24811786065409</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>58.50533598597552</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>78.05238045116442</v>
       </c>
       <c r="P25" t="n">
         <v>91.30379429216262</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y26" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="K28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="L28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="M28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="N28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="O28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="P28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="R28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y28" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="29">
@@ -29933,7 +29933,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>41.84661293371957</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L34" t="n">
         <v>75.04748310488796</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>78.05238045116442</v>
+        <v>26.53981326821121</v>
       </c>
       <c r="P34" t="n">
         <v>93.35918011667277</v>
@@ -30173,19 +30173,19 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L37" t="n">
-        <v>75.04748310488796</v>
+        <v>45.73080183471399</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>63.05363140336351</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>78.05238045116442</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>49.04374979869791</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -30410,22 +30410,22 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L40" t="n">
-        <v>75.04748310488796</v>
+        <v>70.66606836532635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>63.05363140336351</v>
       </c>
       <c r="N40" t="n">
-        <v>46.32230906359139</v>
+        <v>58.50533598597551</v>
       </c>
       <c r="O40" t="n">
-        <v>78.05238045116442</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="R40" t="n">
         <v>93.35918011667277</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="C43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="D43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="E43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="F43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="G43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="H43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="I43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="J43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="K43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="L43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="M43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="N43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="O43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="P43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="R43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="S43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="T43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="U43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="V43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="W43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="X43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.25046557857051</v>
+        <v>49.2504655785705</v>
       </c>
     </row>
     <row r="44">
@@ -36360,16 +36360,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>98.49053833024638</v>
+      </c>
+      <c r="M23" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M23" t="n">
-        <v>98.49053833024634</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>102.6375083652041</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024638</v>
       </c>
       <c r="O24" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P24" t="n">
-        <v>28.39502468041878</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>69.03430246627977</v>
       </c>
       <c r="L25" t="n">
-        <v>27.59002526031614</v>
+        <v>57.29109865578128</v>
       </c>
       <c r="M25" t="n">
-        <v>88.83199482249468</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N25" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="O25" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="O25" t="n">
-        <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
         <v>88.58235355705611</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L26" t="n">
-        <v>7.924825914033272</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M26" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N26" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>102.6375083652041</v>
+        <v>7.924825914033239</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M27" t="n">
-        <v>28.39502468041881</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N27" t="n">
-        <v>102.6375083652041</v>
+        <v>28.39502468041878</v>
       </c>
       <c r="O27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L29" t="n">
-        <v>7.924825914033272</v>
+        <v>98.49053833024638</v>
       </c>
       <c r="M29" t="n">
         <v>102.6375083652041</v>
@@ -36846,10 +36846,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="O29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>98.49053833024638</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="L30" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="M30" t="n">
-        <v>98.49053833024637</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>26.98097375268766</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L31" t="n">
-        <v>76.84049083888665</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M31" t="n">
-        <v>88.8343425404111</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N31" t="n">
-        <v>93.3826379577991</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O31" t="n">
-        <v>73.83559349261019</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P31" t="n">
-        <v>46.529024843464</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L32" t="n">
+        <v>102.6375083652041</v>
+      </c>
+      <c r="M32" t="n">
         <v>7.924825914033268</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="N32" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L33" t="n">
+        <v>28.39502468041882</v>
+      </c>
+      <c r="M33" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M33" t="n">
-        <v>98.49053833024638</v>
-      </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>19.57712110783672</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L34" t="n">
         <v>102.6375083652041</v>
@@ -37241,7 +37241,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="O34" t="n">
-        <v>102.6375083652041</v>
+        <v>51.12494118225089</v>
       </c>
       <c r="P34" t="n">
         <v>90.63773938156626</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>7.924825914033272</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M35" t="n">
         <v>102.6375083652041</v>
@@ -37320,10 +37320,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="O35" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>28.39502468041882</v>
+      </c>
+      <c r="O36" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M36" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>28.39502468041881</v>
       </c>
       <c r="P36" t="n">
         <v>102.6375083652041</v>
@@ -37469,19 +37469,19 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L37" t="n">
+        <v>73.32082709503013</v>
+      </c>
+      <c r="M37" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M37" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="N37" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O37" t="n">
-        <v>102.6375083652041</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
-        <v>46.3223090635914</v>
+        <v>90.63773938156626</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>102.6375083652041</v>
+      </c>
+      <c r="L38" t="n">
         <v>98.49053833024638</v>
-      </c>
-      <c r="L38" t="n">
-        <v>102.6375083652041</v>
       </c>
       <c r="M38" t="n">
         <v>102.6375083652041</v>
@@ -37630,13 +37630,13 @@
         <v>102.6375083652041</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>98.49053833024634</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L40" t="n">
+        <v>98.25609362564249</v>
+      </c>
+      <c r="M40" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M40" t="n">
-        <v>39.58387696184059</v>
-      </c>
       <c r="N40" t="n">
-        <v>90.45448144281998</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O40" t="n">
-        <v>102.6375083652041</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>102.6375083652041</v>
+        <v>7.924825914033272</v>
       </c>
       <c r="L41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N41" t="n">
-        <v>98.49053833024634</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>102.6375083652041</v>
+        <v>7.924825914033245</v>
       </c>
       <c r="M44" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N44" t="n">
-        <v>7.924825914033239</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M45" t="n">
+        <v>28.39502468041878</v>
+      </c>
+      <c r="N45" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
       <c r="O45" t="n">
-        <v>98.49053833024634</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
